--- a/crontab/AMarcket/定向增发_202308.xlsx
+++ b/crontab/AMarcket/定向增发_202308.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="23145" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2022年12月" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="159">
   <si>
     <t>股票代码</t>
   </si>
@@ -495,49 +495,6 @@
     <t>思特奇</t>
   </si>
   <si>
-    <r>
-      <t>详细</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股吧</t>
-    </r>
-  </si>
-  <si>
     <t>秀强股份</t>
   </si>
   <si>
@@ -548,58 +505,6 @@
   </si>
   <si>
     <t>麦迪科技</t>
-  </si>
-  <si>
-    <r>
-      <t>发行总数（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万股</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>增发（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
   </si>
   <si>
     <t>华锡有色</t>
@@ -707,7 +612,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -766,34 +671,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -807,14 +684,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,6 +723,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,13 +788,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,18 +842,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCEDF5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -967,12 +860,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4573E9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -985,55 +872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,31 +896,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,6 +932,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1111,7 +956,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,6 +1035,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,21 +1322,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1478,6 +1350,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,152 +1423,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1712,10 +1599,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1724,10 +1608,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,130 +1629,121 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,25 +1758,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,7 +1785,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1925,16 +1794,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,10 +1812,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1955,61 +1824,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2332,1655 +2198,1655 @@
   </cols>
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:11">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A2" s="64">
+      <c r="A2" s="59">
         <v>603227</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="67">
+      <c r="C2" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="62">
         <v>24199.79</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="62">
         <v>5.54</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="62">
         <v>8.28</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="79">
+      <c r="H2" s="62"/>
+      <c r="I2" s="73">
         <v>44925</v>
       </c>
-      <c r="J2" s="79">
+      <c r="J2" s="73">
         <v>44925</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A3" s="68">
+      <c r="A3" s="63">
         <v>605090</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="70">
+      <c r="C3" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="65">
         <v>525.62</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="65">
         <v>22.83</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="65">
         <v>22.33</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="81">
+      <c r="H3" s="65"/>
+      <c r="I3" s="75">
         <v>44924</v>
       </c>
-      <c r="J3" s="81">
+      <c r="J3" s="75">
         <v>44924</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="K3" s="76" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A4" s="64">
+      <c r="A4" s="59">
         <v>600576</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="67">
+      <c r="C4" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="62">
         <v>5376.34</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="62">
         <v>5.58</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="62">
         <v>7.97</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="62">
         <f>(G4-F4)/F4*100</f>
         <v>42.831541218638</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="73">
         <v>44924</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="73">
         <v>44924</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A5" s="68">
+      <c r="A5" s="63">
         <v>300279</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="70">
+      <c r="C5" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="65">
         <v>4161.39</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="65">
         <v>6.23</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="65">
         <v>5.59</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="81">
+      <c r="H5" s="65"/>
+      <c r="I5" s="75">
         <v>44924</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="75">
         <v>44924</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A6" s="64">
+      <c r="A6" s="59">
         <v>300188</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="67">
+      <c r="C6" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="62">
         <v>5567.05</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="62">
         <v>12.17</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="62">
         <v>20.79</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="79">
+      <c r="H6" s="62"/>
+      <c r="I6" s="73">
         <v>44923</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="73">
         <v>44923</v>
       </c>
-      <c r="K6" s="80" t="s">
+      <c r="K6" s="74" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A7" s="68">
+      <c r="A7" s="63">
         <v>300806</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="70">
+      <c r="C7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="65">
         <v>2008.84</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="65">
         <v>24.89</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="65">
         <v>18.72</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="81">
+      <c r="H7" s="65"/>
+      <c r="I7" s="75">
         <v>44923</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="75">
         <v>44923</v>
       </c>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A8" s="64">
+      <c r="A8" s="59">
         <v>300345</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="67">
+      <c r="C8" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="62">
         <v>13200</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="62">
         <v>4.16</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="62">
         <v>10.46</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="79">
+      <c r="H8" s="62"/>
+      <c r="I8" s="73">
         <v>44922</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="73">
         <v>44922</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="74" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A9" s="68">
+      <c r="A9" s="63">
         <v>301073</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="70">
+      <c r="C9" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="65">
         <v>882.4</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="65">
         <v>58.59</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="65">
         <v>36.35</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="62">
         <f>(G9-F9)/F9*100</f>
         <v>-37.9586960232121</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="75">
         <v>44922</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="75">
         <v>44932</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="64">
+      <c r="A10" s="59">
         <v>300982</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="67">
+      <c r="C10" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="62">
         <v>3068.12</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="62">
         <v>45.26</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="62">
         <v>60.56</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="62">
         <f>(G10-F10)/F10*100</f>
         <v>33.8046840477243</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="73">
         <v>44921</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="73">
         <v>44921</v>
       </c>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="68">
+      <c r="A11" s="63">
         <v>300065</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="70">
+      <c r="C11" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="65">
         <v>3058.1</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="65">
         <v>9.81</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="65">
         <v>12.39</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="62">
         <f>(G11-F11)/F11*100</f>
         <v>26.2996941896024</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="75">
         <v>44921</v>
       </c>
-      <c r="J11" s="81">
+      <c r="J11" s="75">
         <v>44921</v>
       </c>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A12" s="64">
+      <c r="A12" s="59">
         <v>600506</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="67">
+      <c r="C12" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="62">
         <v>4431.21</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="62">
         <v>6.93</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="62">
         <v>10.51</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="79">
+      <c r="H12" s="62"/>
+      <c r="I12" s="73">
         <v>44921</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="73">
         <v>44921</v>
       </c>
-      <c r="K12" s="80" t="s">
+      <c r="K12" s="74" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A13" s="68">
+      <c r="A13" s="63">
         <v>600221</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="70">
+      <c r="C13" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="65">
         <v>997283.83</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="65">
         <v>1.09</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="65">
         <v>1.58</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="81">
+      <c r="H13" s="65"/>
+      <c r="I13" s="75">
         <v>44918</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="75">
         <v>44918</v>
       </c>
-      <c r="K13" s="82" t="s">
+      <c r="K13" s="76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A14" s="64">
+      <c r="A14" s="59">
         <v>600726</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="67">
+      <c r="C14" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="62">
         <v>472799.14</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="62">
         <v>2.27</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="62">
         <v>2.74</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="79">
+      <c r="H14" s="62"/>
+      <c r="I14" s="73">
         <v>44917</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="73">
         <v>44917</v>
       </c>
-      <c r="K14" s="80" t="s">
+      <c r="K14" s="74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" s="60" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A15" s="87" t="s">
+    <row r="15" s="20" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A15" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="74">
+      <c r="C15" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="68">
         <v>280612.85</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="68">
         <v>3.42</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="68">
         <v>3.94</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="68">
         <f>(G15-F15)/F15*100</f>
         <v>15.2046783625731</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="77">
         <v>44917</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="77">
         <v>44917</v>
       </c>
-      <c r="K15" s="84" t="s">
+      <c r="K15" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A16" s="64">
+      <c r="A16" s="59">
         <v>300083</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="67">
+      <c r="C16" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="62">
         <v>12456.42</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="62">
         <v>10.45</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="62">
         <v>7.31</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="79">
+      <c r="H16" s="62"/>
+      <c r="I16" s="73">
         <v>44917</v>
       </c>
-      <c r="J16" s="79">
+      <c r="J16" s="73">
         <v>44917</v>
       </c>
-      <c r="K16" s="80" t="s">
+      <c r="K16" s="74" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="70">
+      <c r="C17" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="65">
         <v>8208.83</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="65">
         <v>37.35</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="65">
         <v>30.84</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="62">
         <f>(G17-F17)/F17*100</f>
         <v>-17.429718875502</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="75">
         <v>44917</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="75">
         <v>44930</v>
       </c>
-      <c r="K17" s="82" t="s">
+      <c r="K17" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A18" s="64">
+      <c r="A18" s="59">
         <v>688131</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="67">
+      <c r="C18" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="62">
         <v>243.93</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="62">
         <v>107.72</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="62">
         <v>56.98</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="79">
+      <c r="H18" s="62"/>
+      <c r="I18" s="73">
         <v>44917</v>
       </c>
-      <c r="J18" s="79">
+      <c r="J18" s="73">
         <v>44917</v>
       </c>
-      <c r="K18" s="80" t="s">
+      <c r="K18" s="74" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="70">
+      <c r="C19" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="65">
         <v>17532.6</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="65">
         <v>6.5</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="65">
         <v>6.65</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="81">
+      <c r="H19" s="65"/>
+      <c r="I19" s="75">
         <v>44917</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J19" s="75">
         <v>44917</v>
       </c>
-      <c r="K19" s="82" t="s">
+      <c r="K19" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="67">
+      <c r="C20" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="62">
         <v>6804</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="62">
         <v>11.03</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="62">
         <v>11.15</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="62">
         <f>(G20-F20)/F20*100</f>
         <v>1.08794197642793</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="73">
         <v>44916</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="73">
         <v>44916</v>
       </c>
-      <c r="K20" s="80" t="s">
+      <c r="K20" s="74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" s="60" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A21" s="87" t="s">
+    <row r="21" s="20" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A21" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="74">
+      <c r="C21" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="68">
         <v>114995.75</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="68">
         <v>3.06</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="68">
         <v>3.05</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="68">
         <f>(G21-F21)/F21*100</f>
         <v>-0.326797385620923</v>
       </c>
-      <c r="I21" s="83">
+      <c r="I21" s="77">
         <v>44915</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="77">
         <v>44923</v>
       </c>
-      <c r="K21" s="84" t="s">
+      <c r="K21" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A22" s="64">
+      <c r="A22" s="59">
         <v>603318</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="67">
+      <c r="C22" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="62">
         <v>1083.74</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="62">
         <v>10.15</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="62">
         <v>8.55</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="62">
         <f>(G22-F22)/F22*100</f>
         <v>-15.7635467980296</v>
       </c>
-      <c r="I22" s="79">
+      <c r="I22" s="73">
         <v>44915</v>
       </c>
-      <c r="J22" s="79">
+      <c r="J22" s="73">
         <v>44915</v>
       </c>
-      <c r="K22" s="80" t="s">
+      <c r="K22" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="70">
+      <c r="C23" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="65">
         <v>3000</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="65">
         <v>10.44</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="65">
         <v>16.05</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="81">
+      <c r="H23" s="65"/>
+      <c r="I23" s="75">
         <v>44915</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="75">
         <v>44923</v>
       </c>
-      <c r="K23" s="82" t="s">
+      <c r="K23" s="76" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="67">
+      <c r="C24" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="62">
         <v>5062.11</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="62">
         <v>8.05</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="62">
         <v>10.12</v>
       </c>
-      <c r="H24" s="67"/>
-      <c r="I24" s="79">
+      <c r="H24" s="62"/>
+      <c r="I24" s="73">
         <v>44914</v>
       </c>
-      <c r="J24" s="79">
+      <c r="J24" s="73">
         <v>44915</v>
       </c>
-      <c r="K24" s="80" t="s">
+      <c r="K24" s="74" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A25" s="68">
+      <c r="A25" s="63">
         <v>300461</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="70">
+      <c r="C25" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="65">
         <v>2969.45</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="65">
         <v>15.82</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="65">
         <v>24.79</v>
       </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="81">
+      <c r="H25" s="65"/>
+      <c r="I25" s="75">
         <v>44914</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="75">
         <v>44914</v>
       </c>
-      <c r="K25" s="82" t="s">
+      <c r="K25" s="76" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" s="60" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A26" s="71">
+    <row r="26" s="20" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A26" s="66">
         <v>300672</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="74">
+      <c r="C26" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="68">
         <v>3525.89</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="68">
         <v>65.08</v>
       </c>
-      <c r="G26" s="74">
+      <c r="G26" s="68">
         <v>83.35</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="68">
         <f>(G26-F26)/F26*100</f>
         <v>28.0731407498463</v>
       </c>
-      <c r="I26" s="83">
+      <c r="I26" s="77">
         <v>44914</v>
       </c>
-      <c r="J26" s="83">
+      <c r="J26" s="77">
         <v>44914</v>
       </c>
-      <c r="K26" s="84" t="s">
+      <c r="K26" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A27" s="68">
+      <c r="A27" s="63">
         <v>300057</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="70">
+      <c r="C27" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="65">
         <v>18097.73</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="65">
         <v>8.8</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="65">
         <v>8.4</v>
       </c>
-      <c r="H27" s="67">
+      <c r="H27" s="62">
         <f>(G27-F27)/F27*100</f>
         <v>-4.54545454545455</v>
       </c>
-      <c r="I27" s="81">
+      <c r="I27" s="75">
         <v>44911</v>
       </c>
-      <c r="J27" s="81">
+      <c r="J27" s="75">
         <v>44911</v>
       </c>
-      <c r="K27" s="82" t="s">
+      <c r="K27" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A28" s="64">
+      <c r="A28" s="59">
         <v>688668</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="67">
+      <c r="C28" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="62">
         <v>1333.11</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="62">
         <v>60.01</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="62">
         <v>97.8</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="62">
         <f>(G28-F28)/F28*100</f>
         <v>62.9728378603566</v>
       </c>
-      <c r="I28" s="79">
+      <c r="I28" s="73">
         <v>44911</v>
       </c>
-      <c r="J28" s="79">
+      <c r="J28" s="73">
         <v>44911</v>
       </c>
-      <c r="K28" s="82" t="s">
+      <c r="K28" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A29" s="68">
+      <c r="A29" s="63">
         <v>300390</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="70">
+      <c r="C29" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="65">
         <v>5229.72</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="65">
         <v>52.89</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="65">
         <v>35.8</v>
       </c>
-      <c r="H29" s="67">
+      <c r="H29" s="62">
         <f>(G29-F29)/F29*100</f>
         <v>-32.3123463792777</v>
       </c>
-      <c r="I29" s="81">
+      <c r="I29" s="75">
         <v>44909</v>
       </c>
-      <c r="J29" s="81">
+      <c r="J29" s="75">
         <v>44922</v>
       </c>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A30" s="64">
+      <c r="A30" s="59">
         <v>300181</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="67">
+      <c r="C30" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="62">
         <v>9276.25</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="62">
         <v>9.81</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="62">
         <v>12.21</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="62">
         <f>(G30-F30)/F30*100</f>
         <v>24.4648318042813</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="73">
         <v>44908</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="73">
         <v>44908</v>
       </c>
-      <c r="K30" s="80" t="s">
+      <c r="K30" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="70">
+      <c r="C31" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="65">
         <v>4663.09</v>
       </c>
-      <c r="F31" s="70">
+      <c r="F31" s="65">
         <v>42.89</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="65">
         <v>31.87</v>
       </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="81">
+      <c r="H31" s="65"/>
+      <c r="I31" s="75">
         <v>44908</v>
       </c>
-      <c r="J31" s="81">
+      <c r="J31" s="75">
         <v>44908</v>
       </c>
-      <c r="K31" s="82" t="s">
+      <c r="K31" s="76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A32" s="64">
+      <c r="A32" s="59">
         <v>300729</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="67">
+      <c r="C32" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="62">
         <v>1798.95</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="62">
         <v>16.62</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="62">
         <v>17.84</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="62">
         <f>(G32-F32)/F32*100</f>
         <v>7.34055354993982</v>
       </c>
-      <c r="I32" s="79">
+      <c r="I32" s="73">
         <v>44907</v>
       </c>
-      <c r="J32" s="79">
+      <c r="J32" s="73">
         <v>44907</v>
       </c>
-      <c r="K32" s="80" t="s">
+      <c r="K32" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A33" s="68">
+      <c r="A33" s="63">
         <v>300094</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="70">
+      <c r="C33" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="65">
         <v>22123.89</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="65">
         <v>4.52</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G33" s="65">
         <v>5.03</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="62">
         <f>(G33-F33)/F33*100</f>
         <v>11.283185840708</v>
       </c>
-      <c r="I33" s="81">
+      <c r="I33" s="75">
         <v>44907</v>
       </c>
-      <c r="J33" s="81">
+      <c r="J33" s="75">
         <v>44907</v>
       </c>
-      <c r="K33" s="82" t="s">
+      <c r="K33" s="76" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" s="60" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A34" s="71">
+    <row r="34" s="20" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A34" s="66">
         <v>600703</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="74">
+      <c r="C34" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="68">
         <v>50967.74</v>
       </c>
-      <c r="F34" s="74">
+      <c r="F34" s="68">
         <v>15.5</v>
       </c>
-      <c r="G34" s="74">
+      <c r="G34" s="68">
         <v>17.24</v>
       </c>
-      <c r="H34" s="74">
+      <c r="H34" s="68">
         <f>(G34-F34)/F34*100</f>
         <v>11.2258064516129</v>
       </c>
-      <c r="I34" s="83">
+      <c r="I34" s="77">
         <v>44907</v>
       </c>
-      <c r="J34" s="83">
+      <c r="J34" s="77">
         <v>44907</v>
       </c>
-      <c r="K34" s="84" t="s">
+      <c r="K34" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A35" s="68">
+      <c r="A35" s="63">
         <v>603982</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="70">
+      <c r="C35" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="65">
         <v>6037.02</v>
       </c>
-      <c r="F35" s="70">
+      <c r="F35" s="65">
         <v>19.76</v>
       </c>
-      <c r="G35" s="70">
+      <c r="G35" s="65">
         <v>16.58</v>
       </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="81">
+      <c r="H35" s="65"/>
+      <c r="I35" s="75">
         <v>44904</v>
       </c>
-      <c r="J35" s="81">
+      <c r="J35" s="75">
         <v>44904</v>
       </c>
-      <c r="K35" s="82" t="s">
+      <c r="K35" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="67">
+      <c r="C36" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="62">
         <v>15011.26</v>
       </c>
-      <c r="F36" s="67">
+      <c r="F36" s="62">
         <v>39.97</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="62">
         <v>42.15</v>
       </c>
-      <c r="H36" s="67"/>
-      <c r="I36" s="79">
+      <c r="H36" s="62"/>
+      <c r="I36" s="73">
         <v>44904</v>
       </c>
-      <c r="J36" s="79">
+      <c r="J36" s="73">
         <v>44918</v>
       </c>
-      <c r="K36" s="80" t="s">
+      <c r="K36" s="74" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A37" s="68">
+      <c r="A37" s="63">
         <v>688097</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="70">
+      <c r="C37" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="65">
         <v>4040.4</v>
       </c>
-      <c r="F37" s="70">
+      <c r="F37" s="65">
         <v>24.75</v>
       </c>
-      <c r="G37" s="70">
+      <c r="G37" s="65">
         <v>30.36</v>
       </c>
-      <c r="H37" s="67">
+      <c r="H37" s="62">
         <f>(G37-F37)/F37*100</f>
         <v>22.6666666666667</v>
       </c>
-      <c r="I37" s="81">
+      <c r="I37" s="75">
         <v>44903</v>
       </c>
-      <c r="J37" s="81">
+      <c r="J37" s="75">
         <v>44903</v>
       </c>
-      <c r="K37" s="82" t="s">
+      <c r="K37" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A38" s="64">
+      <c r="A38" s="59">
         <v>603218</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="67">
+      <c r="C38" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="62">
         <v>5798.69</v>
       </c>
-      <c r="F38" s="67">
+      <c r="F38" s="62">
         <v>13.82</v>
       </c>
-      <c r="G38" s="67">
+      <c r="G38" s="62">
         <v>18.99</v>
       </c>
-      <c r="H38" s="67"/>
-      <c r="I38" s="79">
+      <c r="H38" s="62"/>
+      <c r="I38" s="73">
         <v>44903</v>
       </c>
-      <c r="J38" s="79">
+      <c r="J38" s="73">
         <v>44903</v>
       </c>
-      <c r="K38" s="80" t="s">
+      <c r="K38" s="74" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A39" s="68">
+      <c r="A39" s="63">
         <v>600500</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="70">
+      <c r="C39" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="65">
         <v>82922.09</v>
       </c>
-      <c r="F39" s="70">
+      <c r="F39" s="65">
         <v>6</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="65">
         <v>5.56</v>
       </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="81">
+      <c r="H39" s="65"/>
+      <c r="I39" s="75">
         <v>44902</v>
       </c>
-      <c r="J39" s="81">
+      <c r="J39" s="75">
         <v>44902</v>
       </c>
-      <c r="K39" s="82" t="s">
+      <c r="K39" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A40" s="64">
+      <c r="A40" s="59">
         <v>600995</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="67">
+      <c r="C40" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="62">
         <v>63057.52</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="62">
         <v>12.69</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="62">
         <v>11.01</v>
       </c>
-      <c r="H40" s="67">
+      <c r="H40" s="62">
         <f>(G40-F40)/F40*100</f>
         <v>-13.2387706855792</v>
       </c>
-      <c r="I40" s="79">
+      <c r="I40" s="73">
         <v>44901</v>
       </c>
-      <c r="J40" s="79">
+      <c r="J40" s="73">
         <v>44901</v>
       </c>
-      <c r="K40" s="80" t="s">
+      <c r="K40" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A41" s="68">
+      <c r="A41" s="63">
         <v>600866</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="70">
+      <c r="C41" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="65">
         <v>92245.35</v>
       </c>
-      <c r="F41" s="70">
+      <c r="F41" s="65">
         <v>4.97</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="65">
         <v>5.5</v>
       </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="81">
+      <c r="H41" s="65"/>
+      <c r="I41" s="75">
         <v>44901</v>
       </c>
-      <c r="J41" s="81">
+      <c r="J41" s="75">
         <v>44901</v>
       </c>
-      <c r="K41" s="82" t="s">
+      <c r="K41" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A42" s="64">
+      <c r="A42" s="59">
         <v>300014</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="67">
+      <c r="C42" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="62">
         <v>14297.06</v>
       </c>
-      <c r="F42" s="67">
+      <c r="F42" s="62">
         <v>62.95</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="62">
         <v>60.5</v>
       </c>
-      <c r="H42" s="67"/>
-      <c r="I42" s="79">
+      <c r="H42" s="62"/>
+      <c r="I42" s="73">
         <v>44901</v>
       </c>
-      <c r="J42" s="79">
+      <c r="J42" s="73">
         <v>44901</v>
       </c>
-      <c r="K42" s="80" t="s">
+      <c r="K42" s="74" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A43" s="68">
+      <c r="A43" s="63">
         <v>688560</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="70">
+      <c r="C43" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="65">
         <v>3721.42</v>
       </c>
-      <c r="F43" s="70">
+      <c r="F43" s="65">
         <v>45.02</v>
       </c>
-      <c r="G43" s="70">
+      <c r="G43" s="65">
         <v>27.79</v>
       </c>
-      <c r="H43" s="67">
+      <c r="H43" s="62">
         <f>(G43-F43)/F43*100</f>
         <v>-38.2718791648156</v>
       </c>
-      <c r="I43" s="81">
+      <c r="I43" s="75">
         <v>44901</v>
       </c>
-      <c r="J43" s="81">
+      <c r="J43" s="75">
         <v>44901</v>
       </c>
-      <c r="K43" s="82" t="s">
+      <c r="K43" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="67">
+      <c r="C44" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="62">
         <v>16355.74</v>
       </c>
-      <c r="F44" s="67">
+      <c r="F44" s="62">
         <v>5.54</v>
       </c>
-      <c r="G44" s="67">
+      <c r="G44" s="62">
         <v>9.03</v>
       </c>
-      <c r="H44" s="67"/>
-      <c r="I44" s="79">
+      <c r="H44" s="62"/>
+      <c r="I44" s="73">
         <v>44900</v>
       </c>
-      <c r="J44" s="79">
+      <c r="J44" s="73">
         <v>44900</v>
       </c>
-      <c r="K44" s="80" t="s">
+      <c r="K44" s="74" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="70">
+      <c r="C45" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="65">
         <v>26467.39</v>
       </c>
-      <c r="F45" s="70">
+      <c r="F45" s="65">
         <v>9.2</v>
       </c>
-      <c r="G45" s="70">
+      <c r="G45" s="65">
         <v>8.45</v>
       </c>
-      <c r="H45" s="70"/>
-      <c r="I45" s="81">
+      <c r="H45" s="65"/>
+      <c r="I45" s="75">
         <v>44900</v>
       </c>
-      <c r="J45" s="81">
+      <c r="J45" s="75">
         <v>44900</v>
       </c>
-      <c r="K45" s="82" t="s">
+      <c r="K45" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A46" s="64">
+      <c r="A46" s="59">
         <v>688180</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="67">
+      <c r="C46" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="62">
         <v>7000</v>
       </c>
-      <c r="F46" s="67">
+      <c r="F46" s="62">
         <v>53.95</v>
       </c>
-      <c r="G46" s="67">
+      <c r="G46" s="62">
         <v>38.54</v>
       </c>
-      <c r="H46" s="67">
+      <c r="H46" s="62">
         <f>(G46-F46)/F46*100</f>
         <v>-28.563484708063</v>
       </c>
-      <c r="I46" s="79">
+      <c r="I46" s="73">
         <v>44897</v>
       </c>
-      <c r="J46" s="79">
+      <c r="J46" s="73">
         <v>44897</v>
       </c>
-      <c r="K46" s="80" t="s">
+      <c r="K46" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A47" s="68">
+      <c r="A47" s="63">
         <v>601021</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="70">
+      <c r="C47" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="65">
         <v>6208.61</v>
       </c>
-      <c r="F47" s="70">
+      <c r="F47" s="65">
         <v>48.32</v>
       </c>
-      <c r="G47" s="70">
+      <c r="G47" s="65">
         <v>57.47</v>
       </c>
-      <c r="H47" s="67">
+      <c r="H47" s="62">
         <f>(G47-F47)/F47*100</f>
         <v>18.9362582781457</v>
       </c>
-      <c r="I47" s="81">
+      <c r="I47" s="75">
         <v>44897</v>
       </c>
-      <c r="J47" s="81">
+      <c r="J47" s="75">
         <v>44897</v>
       </c>
-      <c r="K47" s="82" t="s">
+      <c r="K47" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A48" s="75">
+      <c r="A48" s="69">
         <v>688683</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="77">
+      <c r="C48" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="71">
         <v>527.69</v>
       </c>
-      <c r="F48" s="77">
+      <c r="F48" s="71">
         <v>22.93</v>
       </c>
-      <c r="G48" s="77">
+      <c r="G48" s="71">
         <v>22.25</v>
       </c>
-      <c r="H48" s="67">
+      <c r="H48" s="62">
         <f>(G48-F48)/F48*100</f>
         <v>-2.96554731792412</v>
       </c>
-      <c r="I48" s="85">
+      <c r="I48" s="79">
         <v>44896</v>
       </c>
-      <c r="J48" s="85">
+      <c r="J48" s="79">
         <v>44896</v>
       </c>
-      <c r="K48" s="86" t="s">
+      <c r="K48" s="80" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4006,12 +3872,12 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K36"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.3416666666667" style="23" customWidth="1"/>
+    <col min="1" max="1" width="12.3416666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3416666666667" customWidth="1"/>
@@ -4025,1403 +3891,1403 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:11">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="33">
+      <c r="C2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="29">
         <v>4789.92</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="28">
         <v>5.95</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="29">
         <v>12.59</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="30">
         <f>(G2-F2)/F2*100</f>
         <v>111.596638655462</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="45">
         <v>44957</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="46">
         <v>44964</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="47" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A3" s="29">
+      <c r="A3" s="7">
         <v>600335</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="C3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="34">
         <v>3891.33</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="33">
         <v>7.27</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="34">
         <v>11.4</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="30">
         <f t="shared" ref="H3:H39" si="0">(G3-F3)/F3*100</f>
         <v>56.808803301238</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="48">
         <v>44957</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="49">
         <v>44957</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A4" s="29">
+      <c r="A4" s="7">
         <v>603330</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="38">
+      <c r="C4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="34">
         <v>9984.78</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="33">
         <v>9.88</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="34">
         <v>11.11</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="30">
         <f t="shared" si="0"/>
         <v>12.4493927125506</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="48">
         <v>44957</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="49">
         <v>44957</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A5" s="29">
+      <c r="A5" s="7">
         <v>600728</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="C5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="34">
         <v>39633.4</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="33">
         <v>4.61</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="34">
         <v>6.93</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="30">
         <f t="shared" si="0"/>
         <v>50.3253796095444</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="48">
         <v>44956</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="49">
         <v>44956</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="C6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="34">
         <v>210319.05</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="33">
         <v>3.58</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="34">
         <v>3.33</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="30">
         <f t="shared" si="0"/>
         <v>-6.98324022346369</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="48">
         <v>44956</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="49">
         <v>44966</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="C7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="34">
         <v>4000</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="33">
         <v>20</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="34">
         <v>23.6</v>
       </c>
-      <c r="H7" s="34">
-        <f>(G7-F7)/F7*100</f>
+      <c r="H7" s="30">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="48">
         <v>44956</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="49">
         <v>44967</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A8" s="29">
+      <c r="A8" s="7">
         <v>300168</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="C8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="34">
         <v>25560.72</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="33">
         <v>7.74</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="34">
         <v>11.33</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="30">
         <f t="shared" si="0"/>
         <v>46.3824289405685</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="48">
         <v>44956</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="49">
         <v>44956</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A9" s="29">
+      <c r="A9" s="7">
         <v>300733</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="C9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="34">
         <v>1718.67</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="33">
         <v>19.55</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="34">
         <v>15.09</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="30">
         <f t="shared" si="0"/>
         <v>-22.8132992327366</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="48">
         <v>44946</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="49">
         <v>44946</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="C10" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="34">
         <v>2423.79</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="33">
         <v>20.01</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="34">
         <v>27.7</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <f t="shared" si="0"/>
         <v>38.4307846076961</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="48">
         <v>44945</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="49">
         <v>44945</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="29">
+      <c r="A11" s="7">
         <v>603456</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="C11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="34">
         <v>6529.12</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="33">
         <v>38.29</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="34">
         <v>27.38</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="30">
         <f t="shared" si="0"/>
         <v>-28.4930791329329</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="48">
         <v>44945</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="49">
         <v>44945</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A12" s="29">
+      <c r="A12" s="7">
         <v>600207</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="C12" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="34">
         <v>22635.66</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="33">
         <v>5.16</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="34">
         <v>6.03</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="30">
         <f t="shared" si="0"/>
         <v>16.8604651162791</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="48">
         <v>44945</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="49">
         <v>44945</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A13" s="29">
+      <c r="A13" s="7">
         <v>300858</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="C13" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="34">
         <v>2673.8</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="33">
         <v>26.18</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="34">
         <v>16.17</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="30">
         <f t="shared" si="0"/>
         <v>-38.2352941176471</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="48">
         <v>44944</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="49">
         <v>44944</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="C14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="34">
         <v>23719.92</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="33">
         <v>3.48</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="34">
         <v>4.04</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="30">
         <f t="shared" si="0"/>
         <v>16.0919540229885</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="48">
         <v>44944</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="49">
         <v>44944</v>
       </c>
-      <c r="K14" s="54" t="s">
+      <c r="K14" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A15" s="29">
+      <c r="A15" s="7">
         <v>603260</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="C15" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="34">
         <v>10804.14</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="33">
         <v>64.79</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="34">
         <v>70.02</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="30">
         <f t="shared" si="0"/>
         <v>8.0722333693471</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="48">
         <v>44944</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="49">
         <v>44944</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="K15" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A16" s="29">
+      <c r="A16" s="7">
         <v>300775</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="C16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="34">
         <v>5000</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="33">
         <v>33.66</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="34">
         <v>33.78</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="30">
         <f t="shared" si="0"/>
         <v>0.356506238859194</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="48">
         <v>44943</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="49">
         <v>44943</v>
       </c>
-      <c r="K16" s="54" t="s">
+      <c r="K16" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A17" s="29">
+      <c r="A17" s="7">
         <v>601111</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="C17" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="34">
         <v>167597.77</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="33">
         <v>8.95</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="34">
         <v>8.24</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="30">
         <f t="shared" si="0"/>
         <v>-7.93296089385474</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="48">
         <v>44942</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="49">
         <v>44942</v>
       </c>
-      <c r="K17" s="54" t="s">
+      <c r="K17" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A18" s="29">
+      <c r="A18" s="7">
         <v>300171</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="C18" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="34">
         <v>12000</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="33">
         <v>20.57</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="34">
         <v>22.75</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="30">
         <f t="shared" si="0"/>
         <v>10.5979581915411</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="48">
         <v>44939</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="49">
         <v>44939</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A19" s="29">
+      <c r="A19" s="7">
         <v>601669</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="38">
+      <c r="C19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="34">
         <v>208012.42</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="33">
         <v>6.44</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="34">
         <v>5.74</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="30">
         <f t="shared" si="0"/>
         <v>-10.8695652173913</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="48">
         <v>44939</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="49">
         <v>44939</v>
       </c>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="C20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="34">
         <v>110640.31</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="33">
         <v>5.41</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="34">
         <v>9.1</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="30">
         <f t="shared" si="0"/>
         <v>68.2070240295749</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="48">
         <v>44938</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="49">
         <v>44946</v>
       </c>
-      <c r="K20" s="54" t="s">
+      <c r="K20" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="C21" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="34">
         <v>24096.39</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="33">
         <v>4.98</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="34">
         <v>5.23</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="30">
         <f t="shared" si="0"/>
         <v>5.02008032128514</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="48">
         <v>44938</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="49">
         <v>44938</v>
       </c>
-      <c r="K21" s="54" t="s">
+      <c r="K21" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A22" s="29">
+      <c r="A22" s="7">
         <v>600115</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="C22" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="34">
         <v>341685.65</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="33">
         <v>4.39</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="34">
         <v>4.76</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="30">
         <f t="shared" si="0"/>
         <v>8.42824601366743</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="48">
         <v>44938</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="49">
         <v>44938</v>
       </c>
-      <c r="K22" s="54" t="s">
+      <c r="K22" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A23" s="29">
+      <c r="A23" s="7">
         <v>688131</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="C23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="34">
         <v>46.42</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="33">
         <v>107.72</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="34">
         <v>56.98</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="30">
         <f t="shared" si="0"/>
         <v>-47.1036019309321</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="48">
         <v>44937</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="49">
         <v>44937</v>
       </c>
-      <c r="K23" s="54" t="s">
+      <c r="K23" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A24" s="29">
+      <c r="A24" s="7">
         <v>600420</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="C24" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="34">
         <v>14510.28</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="33">
         <v>8.27</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="34">
         <v>11.29</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="30">
         <f t="shared" si="0"/>
         <v>36.5175332527207</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="48">
         <v>44937</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="49">
         <v>44937</v>
       </c>
-      <c r="K24" s="54" t="s">
+      <c r="K24" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A25" s="29">
+      <c r="A25" s="7">
         <v>603222</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="38">
+      <c r="C25" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="34">
         <v>6019.66</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="33">
         <v>8.14</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="34">
         <v>10.43</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="30">
         <f t="shared" si="0"/>
         <v>28.1326781326781</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="48">
         <v>44937</v>
       </c>
-      <c r="J25" s="53">
+      <c r="J25" s="49">
         <v>44937</v>
       </c>
-      <c r="K25" s="54" t="s">
+      <c r="K25" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A26" s="29">
+      <c r="A26" s="7">
         <v>601611</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="38">
+      <c r="C26" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="34">
         <v>37163.95</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="33">
         <v>6.75</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="34">
         <v>8.45</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="30">
         <f t="shared" si="0"/>
         <v>25.1851851851852</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="48">
         <v>44937</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="49">
         <v>44937</v>
       </c>
-      <c r="K26" s="54" t="s">
+      <c r="K26" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A27" s="29">
+      <c r="A27" s="7">
         <v>605050</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="38">
+      <c r="C27" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="34">
         <v>5782.92</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="33">
         <v>11.24</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="34">
         <v>12.35</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="30">
         <f t="shared" si="0"/>
         <v>9.87544483985765</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="48">
         <v>44935</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J27" s="49">
         <v>44935</v>
       </c>
-      <c r="K27" s="54" t="s">
+      <c r="K27" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="38">
+      <c r="C28" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="34">
         <v>13941.48</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="33">
         <v>5.81</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="34">
         <v>13.83</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="30">
         <f t="shared" si="0"/>
         <v>138.037865748709</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="48">
         <v>44932</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J28" s="49">
         <v>44932</v>
       </c>
-      <c r="K28" s="54" t="s">
+      <c r="K28" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A29" s="29">
+      <c r="A29" s="7">
         <v>600732</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="38">
+      <c r="C29" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="34">
         <v>16224.19</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="33">
         <v>10.17</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="34">
         <v>30.75</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="30">
         <f t="shared" si="0"/>
         <v>202.3598820059</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="48">
         <v>44932</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="49">
         <v>44932</v>
       </c>
-      <c r="K29" s="54" t="s">
+      <c r="K29" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A30" s="29">
+      <c r="A30" s="7">
         <v>600726</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="38">
+      <c r="C30" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="34">
         <v>121266.97</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="33">
         <v>2.21</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="34">
         <v>2.74</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="30">
         <f t="shared" si="0"/>
         <v>23.9819004524887</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="48">
         <v>44932</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="49">
         <v>44932</v>
       </c>
-      <c r="K30" s="54" t="s">
+      <c r="K30" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A31" s="29">
+      <c r="A31" s="7">
         <v>603517</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="38">
+      <c r="C31" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="34">
         <v>2260.8</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="33">
         <v>52.21</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="34">
         <v>37.15</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="30">
         <f t="shared" si="0"/>
         <v>-28.8450488412182</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="48">
         <v>44932</v>
       </c>
-      <c r="J31" s="53">
+      <c r="J31" s="49">
         <v>44932</v>
       </c>
-      <c r="K31" s="54" t="s">
+      <c r="K31" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="38">
+      <c r="C32" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="34">
         <v>2000</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="33">
         <v>17.1</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="34">
         <v>31.9</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="30">
         <f t="shared" si="0"/>
         <v>86.5497076023392</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="48">
         <v>44932</v>
       </c>
-      <c r="J32" s="53">
+      <c r="J32" s="49">
         <v>44932</v>
       </c>
-      <c r="K32" s="54" t="s">
+      <c r="K32" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A33" s="29">
+      <c r="A33" s="7">
         <v>600975</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="38">
+      <c r="C33" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="34">
         <v>27143.83</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="33">
         <v>7.22</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="34">
         <v>9.56</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="30">
         <f t="shared" si="0"/>
         <v>32.409972299169</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="48">
         <v>44932</v>
       </c>
-      <c r="J33" s="53">
+      <c r="J33" s="49">
         <v>44932</v>
       </c>
-      <c r="K33" s="54" t="s">
+      <c r="K33" s="50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" s="22" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A34" s="39">
+    <row r="34" s="20" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A34" s="35">
         <v>601100</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="41">
+      <c r="C34" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="37">
         <v>3546.1</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="37">
         <v>56.4</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="37">
         <v>64.33</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="38">
         <f t="shared" si="0"/>
         <v>14.0602836879433</v>
       </c>
-      <c r="I34" s="55">
+      <c r="I34" s="51">
         <v>44932</v>
       </c>
-      <c r="J34" s="55">
+      <c r="J34" s="51">
         <v>44932</v>
       </c>
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" s="22" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A35" s="91" t="s">
+    <row r="35" s="20" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A35" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="41">
+      <c r="C35" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="37">
         <v>19762.38</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="37">
         <v>10.1</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="37">
         <v>8.98</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="38">
         <f t="shared" si="0"/>
         <v>-11.0891089108911</v>
       </c>
-      <c r="I35" s="55">
+      <c r="I35" s="51">
         <v>44932</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="51">
         <v>44932</v>
       </c>
-      <c r="K35" s="56" t="s">
+      <c r="K35" s="52" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A36" s="29">
+      <c r="A36" s="7">
         <v>300608</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="38">
+      <c r="C36" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="34">
         <v>7549.24</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="33">
         <v>8.03</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="34">
         <v>9.66</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="30">
         <f t="shared" si="0"/>
         <v>20.2988792029888</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="48">
         <v>44931</v>
       </c>
-      <c r="J36" s="53">
+      <c r="J36" s="49">
         <v>44931</v>
       </c>
-      <c r="K36" s="54" t="s">
+      <c r="K36" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A37" s="29">
+      <c r="A37" s="7">
         <v>300160</v>
       </c>
-      <c r="B37" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="38">
+      <c r="B37" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="34">
         <v>15477.39</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="33">
         <v>5.97</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="34">
         <v>6.49</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="30">
         <f t="shared" si="0"/>
         <v>8.71021775544389</v>
       </c>
-      <c r="I37" s="52">
+      <c r="I37" s="48">
         <v>44931</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="49">
         <v>44931</v>
       </c>
-      <c r="K37" s="54" t="s">
+      <c r="K37" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="38">
+      <c r="C38" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="34">
         <v>62994.34</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="33">
         <v>6.77</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="34">
         <v>14.21</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="30">
         <f t="shared" si="0"/>
         <v>109.896602658789</v>
       </c>
-      <c r="I38" s="52">
+      <c r="I38" s="48">
         <v>44930</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="49">
         <v>44930</v>
       </c>
-      <c r="K38" s="54" t="s">
+      <c r="K38" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A39" s="29">
+      <c r="A39" s="7">
         <v>603990</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="46">
+      <c r="B39" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="42">
         <v>2144.01</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="41">
         <v>11.14</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="42">
         <v>22.05</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="30">
         <f t="shared" si="0"/>
         <v>97.935368043088</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="53">
         <v>44929</v>
       </c>
-      <c r="J39" s="58">
+      <c r="J39" s="54">
         <v>44929</v>
       </c>
-      <c r="K39" s="59" t="s">
+      <c r="K39" s="55" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5486,7 +5352,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="L1" sqref="L$1:O$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5518,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -5527,13 +5393,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="6"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5542,31 +5408,31 @@
         <v>600301</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>35723.18</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>6.34</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>17.95</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="18">
+      <c r="H2" s="10"/>
+      <c r="I2" s="16">
         <v>44984</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="16">
         <v>44984</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5574,104 +5440,104 @@
       <c r="A3" s="7">
         <v>601778</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="B3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12">
         <v>67650.11</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>4.43</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>4.94</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <f>(G3-F3)/F3*100</f>
         <v>11.5124153498871</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <v>44980</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <v>44980</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A4" s="92" t="s">
-        <v>130</v>
+      <c r="A4" s="84" t="s">
+        <v>127</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>7413.78</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>7.91</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>8.36</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <f>(G4-F4)/F4*100</f>
         <v>5.68900126422249</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>44978</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>44978</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A5" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="A5" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12">
         <v>2232.12</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>4.48</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>6.05</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="20">
+      <c r="H5" s="13"/>
+      <c r="I5" s="18">
         <v>44977</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>44977</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5680,34 +5546,34 @@
         <v>300395</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>564.02</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>53.19</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>49.2</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <f>(G6-F6)/F6*100</f>
         <v>-7.5014100394811</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>44974</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="16">
         <v>44974</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5715,35 +5581,35 @@
       <c r="A7" s="7">
         <v>300442</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="B7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
         <v>13344.69</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>35.22</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>30.76</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <f>(G7-F7)/F7*100</f>
         <v>-12.6632595116411</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>44973</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>44973</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5752,31 +5618,31 @@
         <v>600731</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>9695.29</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>7.22</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>7.77</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="18">
+      <c r="H8" s="10"/>
+      <c r="I8" s="16">
         <v>44973</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <v>44973</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5784,32 +5650,32 @@
       <c r="A9" s="7">
         <v>300055</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="B9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
         <v>3365.38</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>10.37</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>7.2</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="20">
+      <c r="H9" s="13"/>
+      <c r="I9" s="18">
         <v>44973</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <v>44973</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5818,70 +5684,70 @@
         <v>300683</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>879.02</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>33.56</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>38.31</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <f>(G10-F10)/F10*100</f>
         <v>14.1537544696067</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <v>44972</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="16">
         <v>44972</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="A11" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
         <v>1364.62</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>16.52</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>15.29</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <f>(G11-F11)/F11*100</f>
         <v>-7.4455205811138</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="18">
         <v>44971</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <v>44971</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5890,64 +5756,64 @@
         <v>300264</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>1775.75</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>5.32</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>6.87</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="18">
+      <c r="H12" s="10"/>
+      <c r="I12" s="16">
         <v>44970</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="16">
         <v>44970</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A13" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="A13" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
         <v>219145.26</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>4.79</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>6.58</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="20">
+      <c r="H13" s="13"/>
+      <c r="I13" s="18">
         <v>44970</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="18">
         <v>44970</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5956,64 +5822,64 @@
         <v>300118</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>24813.9</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>20.15</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>25.63</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="18">
+      <c r="H14" s="10"/>
+      <c r="I14" s="16">
         <v>44970</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="16">
         <v>44970</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A15" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="A15" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12">
         <v>3107.08</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>10.23</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>13.87</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="20">
+      <c r="H15" s="13"/>
+      <c r="I15" s="18">
         <v>44967</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="18">
         <v>44967</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6022,34 +5888,34 @@
         <v>300763</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>1950</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>150</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>104.1</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <f>(G16-F16)/F16*100</f>
         <v>-30.6</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="16">
         <v>44967</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="16">
         <v>44967</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6057,32 +5923,32 @@
       <c r="A17" s="7">
         <v>600425</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="B17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12">
         <v>22591.36</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>3.01</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>4.42</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="20">
+      <c r="H17" s="13"/>
+      <c r="I17" s="18">
         <v>44967</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="18">
         <v>44967</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6091,34 +5957,34 @@
         <v>688518</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>3633.03</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>27.25</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>27.86</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <f>(G18-F18)/F18*100</f>
         <v>2.23853211009174</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <v>44966</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <v>44966</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6126,35 +5992,35 @@
       <c r="A19" s="7">
         <v>688063</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="B19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
         <v>2006.02</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>249.25</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>198.25</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="13">
         <f>(G19-F19)/F19*100</f>
         <v>-20.4613841524574</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="18">
         <v>44965</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="18">
         <v>44965</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6163,34 +6029,34 @@
         <v>300252</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>8500</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>6.26</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>11.24</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="13">
         <f>(G20-F20)/F20*100</f>
         <v>79.5527156549521</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <v>44964</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="16">
         <v>44964</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6198,68 +6064,68 @@
       <c r="A21" s="7">
         <v>688789</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="B21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="12">
         <v>694.44</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>144</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>88.33</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="13">
         <f>(G21-F21)/F21*100</f>
         <v>-38.6597222222222</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="18">
         <v>44963</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="18">
         <v>44963</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A22" s="92" t="s">
-        <v>153</v>
+      <c r="A22" s="84" t="s">
+        <v>150</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>15973.05</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>18.7</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>24.47</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="18">
+      <c r="H22" s="10"/>
+      <c r="I22" s="16">
         <v>44960</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="16">
         <v>44960</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="17" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6267,32 +6133,32 @@
       <c r="A23" s="7">
         <v>600900</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="B23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="12">
         <v>92192.24</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <v>17.46</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>22.06</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="20">
+      <c r="H23" s="13"/>
+      <c r="I23" s="18">
         <v>44960</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="18">
         <v>44960</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6301,68 +6167,68 @@
         <v>603229</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>2175.43</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>22.29</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>20.98</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="13">
         <f>(G24-F24)/F24*100</f>
         <v>-5.87707492148945</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="16">
         <v>44960</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="16">
         <v>44960</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" ht="22.5" hidden="1" customHeight="1" spans="1:11">
-      <c r="A25" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="A25" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="12">
         <v>75200.59</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>7.15</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>11.83</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="20">
+      <c r="H25" s="13"/>
+      <c r="I25" s="18">
         <v>44960</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="18">
         <v>44960</v>
       </c>
-      <c r="K25" s="21" t="s">
-        <v>159</v>
+      <c r="K25" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="26" ht="22.5" hidden="1" customHeight="1" spans="1:11">
@@ -6370,40 +6236,40 @@
         <v>600908</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>28943.56</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>6.91</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>5.36</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="18">
+      <c r="H26" s="10"/>
+      <c r="I26" s="16">
         <v>44959</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="16">
         <v>44959</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>161</v>
+      <c r="K26" s="17" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="I1:K26">
     <filterColumn colId="2">
-      <filters>
-        <filter val="0.5年"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="0.5年"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
